--- a/Missing Curvatures.xlsx
+++ b/Missing Curvatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAMES\Documents\Math\Programs\Apollonian\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CB1B2C-C304-4B1A-A86D-5F3940E4CD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EDFCC9-1A7E-462B-9BF3-0A26CB23591F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" activeTab="14" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" activeTab="2" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="12" r:id="rId1"/>
@@ -1592,21 +1592,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -2200,7 +2186,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3045,10 +3031,10 @@
     <row r="42" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:J5 D9:J9 D13:J13 D17:J17 D21:J21 D25:J25 D29:J29 D33:J33 D37:J37 D41:J41">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>D5/$B3&gt;=$O$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>D5/$B3&lt;$O$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3063,7 +3049,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4643,10 +4629,10 @@
     <row r="82" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:J5 D9:J9 D13:J13 D17:J17 D21:J21 D25:J25 D29:J29 D33:J33 D37:J37 D41:J41 D45:J45 D49:J49 D53:J53 D57:J57 D61:J61 D65:J65 D69:J69 D73:J73 D77:J77 D81:J81">
-    <cfRule type="expression" dxfId="11" priority="43">
+    <cfRule type="expression" dxfId="9" priority="43">
       <formula>D5/$B3&gt;=$O$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="44">
+    <cfRule type="expression" dxfId="8" priority="44">
       <formula>D5/$B3&lt;$O$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4661,7 +4647,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9009,10 +8995,10 @@
     <row r="190" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:L5 D9:L9 D13:L13 D17:L17 D21:L21 D25:L25 D29:L29 D33:L33 D37:L37 D41:L41 D45:L45 D49:L49 D53:L53 D57:L57 D61:L61 D65:L65 D69:L69 D73:L73 D77:L77 D81:L81 D85:L85 D89:L89 D93:L93 D97:L97 D101:L101 D105:L105 D109:L109 D113:L113 D117:L117 D121:L121 D125:L125 D129:L129 D133:L133 D137:L137 D141:L141 D145:L145 D149:L149 D153:L153 D157:L157 D161:L161 D165:L165 D169:L169 D173:L173 D177:L177 D181:L181 D185:L185 D189:L189">
-    <cfRule type="expression" dxfId="9" priority="107">
+    <cfRule type="expression" dxfId="7" priority="107">
       <formula>D5/$B3&gt;=$Q$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="108">
+    <cfRule type="expression" dxfId="6" priority="108">
       <formula>D5/$B3&lt;$Q$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9026,7 +9012,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14107,10 +14093,10 @@
     <row r="230" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:L5 D9:L9 D13:L13 D17:L17 D21:L21 D25:L25 D29:L29 D33:L33 D37:L37 D41:L41 D45:L45 D49:L49 D53:L53 D57:L57 D61:L61 D65:L65 D69:L69 D73:L73 D77:L77 D81:L81 D85:L85 D89:L89 D93:L93 D97:L97 D101:L101 D105:L105 D109:L109 D113:L113 D117:L117 D121:L121 D125:L125 D129:L129 D133:L133 D137:L137 D141:L141 D145:L145 D149:L149 D153:L153 D157:L157 D161:L161 D165:L165 D169:L169 D173:L173 D177:L177 D181:L181 D185:L185 D189:L189 D193:L193 D197:L197 D201:L201 D205:L205 D209:L209 D213:L213 D217:L217 D221:L221 D225:L225 D229:L229">
-    <cfRule type="expression" dxfId="7" priority="131">
+    <cfRule type="expression" dxfId="5" priority="131">
       <formula>D5/$B3&gt;=$Q$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="132">
+    <cfRule type="expression" dxfId="4" priority="132">
       <formula>D5/$B3&lt;$Q$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14123,7 +14109,7 @@
   <dimension ref="A1:Q258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M257" sqref="M257"/>
     </sheetView>
   </sheetViews>
@@ -19717,10 +19703,10 @@
     <row r="258" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:L5 D9:L9 D13:L13 D17:L17 D21:L21 D25:L25 D29:L29 D33:L33 D37:L37 D41:L41 D45:L45 D49:L49 D53:L53 D57:L57 D61:L61 D65:L65 D69:L69 D73:L73 D77:L77 D81:L81 D85:L85 D89:L89 D93:L93 D97:L97 D101:L101 D105:L105 D109:L109 D113:L113 D117:L117 D121:L121 D125:L125 D129:L129 D133:L133 D137:L137 D141:L141 D145:L145 D149:L149 D153:L153 D157:L157 D161:L161 D165:L165 D169:L169 D173:L173 D177:L177 D181:L181 D185:L185 D189:L189 D193:L193 D197:L197 D201:L201 D205:L205 D209:L209 D213:L213 D217:L217 D221:L221 D225:L225 D229:L229 D233:L233 D237:L237 D241:L241 D245:L245 D249:L249 D253:L253 D257:L257">
-    <cfRule type="expression" dxfId="5" priority="215">
+    <cfRule type="expression" dxfId="3" priority="215">
       <formula>D5/$B3&gt;=$Q$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="216">
+    <cfRule type="expression" dxfId="2" priority="216">
       <formula>D5/$B3&lt;$Q$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19732,9 +19718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36C8E0B-89F6-4812-8468-DA6393BCD432}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23459,10 +23445,10 @@
     <row r="166" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:L5 D9:L9 D13:L13 D17:L17 D21:L21 D25:L25 D29:L29 D33:L33 D37:L37 D41:L41 D45:L45 D49:L49 D53:L53 D57:L57 D61:L61 D65:L65 D69:L69 D73:L73 D77:L77 D81:L81 D85:L85 D89:L89 D93:L93 D97:L97 D101:L101 D105:L105 D109:L109 D113:L113 D117:L117 D121:L121 D125:L125 D129:L129 D133:L133 D137:L137 D141:L141 D145:L145 D149:L149 D153:L153 D157:L157 D161:L161 D165:L165">
-    <cfRule type="expression" dxfId="3" priority="99">
+    <cfRule type="expression" dxfId="1" priority="99">
       <formula>D5/$B3&gt;=$Q$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="100">
+    <cfRule type="expression" dxfId="0" priority="100">
       <formula>D5/$B3&lt;$Q$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25328,10 +25314,10 @@
     <row r="94" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:J5 D9:J9 D13:J13 D17:J17 D21:J21 D25:J25 D29:J29 D33:J33 D37:J37 D41:J41 D45:J45 D49:J49 D53:J53 D57:J57 D61:J61 D65:J65 D69:J69 D73:J73 D77:J77 D81:J81 D85:J85 D89:J89 D93:J93">
-    <cfRule type="expression" dxfId="29" priority="149">
+    <cfRule type="expression" dxfId="27" priority="149">
       <formula>D5/$B3&gt;$O$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="150">
+    <cfRule type="expression" dxfId="26" priority="150">
       <formula>D5/$B3&lt;=$O$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25344,9 +25330,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E542B7F9-4C8E-4AEB-9167-8C40D4B14B1E}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25555,8 +25541,8 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="1">
-        <f>10^10</f>
-        <v>10000000000</v>
+        <f>10^11</f>
+        <v>100000000000</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>428</v>
@@ -25641,7 +25627,7 @@
       </c>
       <c r="K9" s="14">
         <f>B7/J9</f>
-        <v>1.689272562779965</v>
+        <v>16.892725627799649</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -27381,10 +27367,10 @@
     <row r="98" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:J5 D9:J9 D13:J13 D17:J17 D21:J21 D25:J25 D29:J29 D33:J33 D37:J37 D41:J41 D45:J45 D49:J49 D53:J53 D57:J57 D61:J61 D65:J65 D69:J69 D73:J73 D77:J77 D81:J81 D85:J85 D89:J89 D93:J93 D97:J97">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>D5/$B3&gt;=$O$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>D5/$B3&lt;$O$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27399,7 +27385,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28811,10 +28797,10 @@
     <row r="70" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:J5 D9:J9 D13:J13 D17:J17 D21:J21 D25:J25 D29:J29 D33:J33 D37:J37 D41:J41 D45:J45 D49:J49 D53:J53 D57:J57 D61:J61 D65:J65 D69:J69">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>D5/$B3&gt;=$O$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>D5/$B3&lt;$O$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28829,7 +28815,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30696,10 +30682,10 @@
     <row r="90" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:J5 D9:J9 D13:J13 D17:J17 D21:J21 D25:J25 D29:J29 D33:J33 D37:J37 D41:J41 D45:J45 D49:J49 D53:J53 D57:J57 D61:J61 D65:J65 D69:J69 D73:J73 D77:J77 D81:J81 D85:J85 D89:J89">
-    <cfRule type="expression" dxfId="23" priority="109">
+    <cfRule type="expression" dxfId="21" priority="109">
       <formula>D5/$B3&gt;=$O$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="110">
+    <cfRule type="expression" dxfId="20" priority="110">
       <formula>D5/$B3&lt;$O$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30713,7 +30699,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32556,10 +32542,10 @@
     <row r="98" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:J5 D9:J9 D13:J13 D17:J17 D21:J21 D25:J25 D29:J29 D33:J33 D37:J37 D41:J41 D45:J45 D49:J49 D53:J53 D57:J57 D61:J61 D65:J65 D69:J69 D73:J73 D77:J77 D81:J81 D85:J85 D89:J89 D93:J93 D97:J97">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>D5/$B3&gt;=$O$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>D5/$B3&lt;$O$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32573,7 +32559,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34939,10 +34925,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5:J5 D9:J9 D13:J13 D17:J17 D21:J21 D25:J25 D29:J29 D33:J33 D37:J37 D41:J41 D45:J45 D49:J49 D53:J53 D57:J57 D61:J61 D65:J65 D69:J69 D73:J73 D77:J77 D81:J81 D85:J85 D89:J89 D93:J93 D97:J97 D101:J101 D105:J105 D109:J109 D113:J113 D117:J117">
-    <cfRule type="expression" dxfId="19" priority="99">
+    <cfRule type="expression" dxfId="17" priority="99">
       <formula>D5/$B3&gt;=$O$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="100">
+    <cfRule type="expression" dxfId="16" priority="100">
       <formula>D5/$B3&lt;$O$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36492,10 +36478,10 @@
     <row r="74" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:J5 D9:J9 D13:J13 D17:J17 D21:J21 D25:J25 D29:J29 D33:J33 D37:J37 D41:J41 D45:J45 D49:J49 D53:J53 D57:J57 D61:J61 D65:J65 D69:J69 D73:J73">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>D5/$B3&gt;=$O$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>D5/$B3&lt;$O$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36510,7 +36496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37909,10 +37895,10 @@
     <row r="70" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D5:J5 D9:J9 D13:J13 D17:J17 D21:J21 D25:J25 D29:J29 D33:J33 D37:J37 D41:J41 D45:J45 D49:J49 D53:J53 D57:J57 D61:J61 D65:J65 D69:J69">
-    <cfRule type="expression" dxfId="15" priority="101">
+    <cfRule type="expression" dxfId="13" priority="101">
       <formula>D5/$B3&gt;=$O$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="102">
+    <cfRule type="expression" dxfId="12" priority="102">
       <formula>D5/$B3&lt;$O$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Missing Curvatures.xlsx
+++ b/Missing Curvatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAMES\Documents\Math\Programs\Apollonian\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EDFCC9-1A7E-462B-9BF3-0A26CB23591F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65332EFF-810D-4C6A-9831-3A2E6EEF52B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" activeTab="2" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
   </bookViews>
@@ -9012,7 +9012,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16:N17"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14109,8 +14109,8 @@
   <dimension ref="A1:Q258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M257" sqref="M257"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25332,7 +25332,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25662,8 +25662,8 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="1">
-        <f>10^11</f>
-        <v>100000000000</v>
+        <f>1.5*10^11</f>
+        <v>150000000000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>428</v>
@@ -25748,7 +25748,7 @@
       </c>
       <c r="K13" s="14">
         <f>B11/J13</f>
-        <v>7.8786488352472492</v>
+        <v>11.817973252870873</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">

--- a/Missing Curvatures.xlsx
+++ b/Missing Curvatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAMES\Documents\Math\Programs\Apollonian\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65332EFF-810D-4C6A-9831-3A2E6EEF52B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988946F9-C3A2-452A-A3BF-434CF3F78B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" activeTab="2" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
+    <workbookView xWindow="96" yWindow="0" windowWidth="22944" windowHeight="12240" tabRatio="775" activeTab="8" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="12" r:id="rId1"/>
@@ -14109,8 +14109,8 @@
   <dimension ref="A1:Q258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15217,8 +15217,8 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="1">
-        <f>10^10</f>
-        <v>10000000000</v>
+        <f>10^11</f>
+        <v>100000000000</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>428</v>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="M37" s="14">
         <f>B35/L37</f>
-        <v>1.4268904604918213</v>
+        <v>14.268904604918212</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -19719,7 +19719,7 @@
   <dimension ref="A1:Q166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N18" sqref="N18:N21"/>
     </sheetView>
   </sheetViews>
@@ -25330,7 +25330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E542B7F9-4C8E-4AEB-9167-8C40D4B14B1E}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
@@ -36494,9 +36494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9951D164-36E6-42AB-B42D-6BFF47135181}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37049,8 +37049,8 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="1">
-        <f>10^11</f>
-        <v>100000000000</v>
+        <f>3*10^11</f>
+        <v>300000000000</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>428</v>
@@ -37132,7 +37132,7 @@
       </c>
       <c r="K21" s="3">
         <f>B19/J21</f>
-        <v>3.7060322614229464</v>
+        <v>11.11809678426884</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">

--- a/Missing Curvatures.xlsx
+++ b/Missing Curvatures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAMES\Documents\Math\Programs\Apollonian\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988946F9-C3A2-452A-A3BF-434CF3F78B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E641EF-5076-44D3-883A-2A8B7442FBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="96" yWindow="0" windowWidth="22944" windowHeight="12240" tabRatio="775" activeTab="8" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="459">
   <si>
     <t>Quadruple</t>
   </si>
@@ -36495,8 +36495,8 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37392,23 +37392,54 @@
       <c r="A38" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
       <c r="C38" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G38" s="5">
+        <v>12</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
+      <c r="B39" s="1">
+        <f>3*10^11</f>
+        <v>300000000000</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>428</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F39" s="1">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1">
+        <v>36</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="K39" s="8"/>
     </row>
@@ -37418,15 +37449,27 @@
       <c r="C40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="D40" s="10">
+        <v>495569</v>
+      </c>
+      <c r="E40" s="10">
+        <v>133137</v>
+      </c>
+      <c r="F40" s="10">
+        <v>54432</v>
+      </c>
+      <c r="G40" s="10">
+        <v>488722</v>
+      </c>
+      <c r="H40" s="10">
+        <v>14101</v>
+      </c>
+      <c r="I40" s="10">
+        <v>130334</v>
+      </c>
       <c r="J40" s="10">
         <f>SUM(D40:I40)</f>
-        <v>0</v>
+        <v>1316295</v>
       </c>
       <c r="K40" s="11"/>
     </row>
@@ -37436,19 +37479,31 @@
       <c r="C41" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="D41" s="13">
+        <v>40674101880</v>
+      </c>
+      <c r="E41" s="13">
+        <v>8163582440</v>
+      </c>
+      <c r="F41" s="13">
+        <v>2503933281</v>
+      </c>
+      <c r="G41" s="13">
+        <v>29827484340</v>
+      </c>
+      <c r="H41" s="13">
+        <v>441703505</v>
+      </c>
+      <c r="I41" s="13">
+        <v>8149520300</v>
+      </c>
       <c r="J41" s="13">
         <f>MAX(D41:I41)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="e">
+        <v>40674101880</v>
+      </c>
+      <c r="K41" s="3">
         <f>B39/J41</f>
-        <v>#DIV/0!</v>
+        <v>7.3757006580030726</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">

--- a/Missing Curvatures.xlsx
+++ b/Missing Curvatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAMES\Documents\Math\Programs\Apollonian\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E641EF-5076-44D3-883A-2A8B7442FBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4FB177-EED9-4427-B15D-B9DC9C6CC505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="0" windowWidth="22944" windowHeight="12240" tabRatio="775" activeTab="8" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
+    <workbookView xWindow="96" yWindow="0" windowWidth="22944" windowHeight="12240" tabRatio="775" activeTab="2" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="12" r:id="rId1"/>
@@ -25330,9 +25330,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E542B7F9-4C8E-4AEB-9167-8C40D4B14B1E}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25662,8 +25662,8 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="1">
-        <f>1.5*10^11</f>
-        <v>150000000000</v>
+        <f>2*10^11</f>
+        <v>200000000000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>428</v>
@@ -25748,7 +25748,7 @@
       </c>
       <c r="K13" s="14">
         <f>B11/J13</f>
-        <v>11.817973252870873</v>
+        <v>15.757297670494498</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -36494,7 +36494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9951D164-36E6-42AB-B42D-6BFF47135181}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>

--- a/Missing Curvatures.xlsx
+++ b/Missing Curvatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAMES\Documents\Math\Programs\Apollonian\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4FB177-EED9-4427-B15D-B9DC9C6CC505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ADCAD2-5941-44D0-B0C6-996FE17D45A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="0" windowWidth="22944" windowHeight="12240" tabRatio="775" activeTab="2" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
+    <workbookView xWindow="96" yWindow="0" windowWidth="22944" windowHeight="12240" tabRatio="775" activeTab="1" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="12" r:id="rId1"/>
@@ -23460,9 +23460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADE4644-CCC9-4D36-83D5-F9AE01BDCF6A}">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23981,8 +23981,8 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="1">
-        <f>10^11</f>
-        <v>100000000000</v>
+        <f>10^12</f>
+        <v>1000000000000</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>428</v>
@@ -24064,7 +24064,7 @@
       </c>
       <c r="K21" s="14">
         <f>B19/J21</f>
-        <v>1.788504996092485</v>
+        <v>17.885049960924849</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -25330,7 +25330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E542B7F9-4C8E-4AEB-9167-8C40D4B14B1E}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>

--- a/Missing Curvatures.xlsx
+++ b/Missing Curvatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAMES\Documents\Math\Programs\Apollonian\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ADCAD2-5941-44D0-B0C6-996FE17D45A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC805A9-22ED-4E32-9AB4-0CCDFA3E9AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="0" windowWidth="22944" windowHeight="12240" tabRatio="775" activeTab="1" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
+    <workbookView xWindow="96" yWindow="0" windowWidth="22944" windowHeight="12240" tabRatio="775" activeTab="8" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="12" r:id="rId1"/>
@@ -23460,9 +23460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADE4644-CCC9-4D36-83D5-F9AE01BDCF6A}">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="A18:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36494,9 +36494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9951D164-36E6-42AB-B42D-6BFF47135181}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37049,8 +37049,8 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="1">
-        <f>3*10^11</f>
-        <v>300000000000</v>
+        <f>10^12</f>
+        <v>1000000000000</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>428</v>
@@ -37132,7 +37132,7 @@
       </c>
       <c r="K21" s="3">
         <f>B19/J21</f>
-        <v>11.11809678426884</v>
+        <v>37.060322614229463</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">

--- a/Missing Curvatures.xlsx
+++ b/Missing Curvatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAMES\Documents\Math\Programs\Apollonian\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC805A9-22ED-4E32-9AB4-0CCDFA3E9AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95EAF84-1F94-478D-A50C-43B90E98C65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="0" windowWidth="22944" windowHeight="12240" tabRatio="775" activeTab="8" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="22536" windowHeight="12240" tabRatio="775" xr2:uid="{8C34F5AD-CAF7-48CF-A3DC-CD7011562DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="12" r:id="rId1"/>
@@ -2101,7 +2101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C339B4-6B65-4D4D-A2A8-A3FEA5514122}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -14109,8 +14109,8 @@
   <dimension ref="A1:Q258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14933,8 +14933,8 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="1">
-        <f>10^10</f>
-        <v>10000000000</v>
+        <f>3*10^11</f>
+        <v>300000000000</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>428</v>
@@ -14969,32 +14969,32 @@
         <v>2</v>
       </c>
       <c r="D28" s="10">
-        <v>259896</v>
+        <v>259899</v>
       </c>
       <c r="E28" s="10">
-        <v>921343</v>
+        <v>922399</v>
       </c>
       <c r="F28" s="10">
-        <v>914199</v>
+        <v>915255</v>
       </c>
       <c r="G28" s="10">
-        <v>248307</v>
+        <v>248311</v>
       </c>
       <c r="H28" s="10">
-        <v>260208</v>
+        <v>260212</v>
       </c>
       <c r="I28" s="10">
-        <v>907574</v>
+        <v>908627</v>
       </c>
       <c r="J28" s="10">
-        <v>911107</v>
+        <v>912101</v>
       </c>
       <c r="K28" s="10">
-        <v>253714</v>
+        <v>253716</v>
       </c>
       <c r="L28" s="10">
         <f>SUM(D28:K28)</f>
-        <v>4676348</v>
+        <v>4680520</v>
       </c>
       <c r="M28" s="11"/>
     </row>
@@ -15005,36 +15005,36 @@
         <v>3</v>
       </c>
       <c r="D29" s="13">
-        <v>9563190650</v>
+        <v>15636373730</v>
       </c>
       <c r="E29" s="13">
-        <v>9998077995</v>
+        <v>77219638275</v>
       </c>
       <c r="F29" s="13">
-        <v>9997772430</v>
+        <v>60111316830</v>
       </c>
       <c r="G29" s="13">
-        <v>9562831115</v>
+        <v>13825331075</v>
       </c>
       <c r="H29" s="13">
-        <v>9187538750</v>
+        <v>14564987750</v>
       </c>
       <c r="I29" s="13">
-        <v>9999018135</v>
+        <v>77568667095</v>
       </c>
       <c r="J29" s="13">
-        <v>9996381330</v>
+        <v>70250279970</v>
       </c>
       <c r="K29" s="13">
-        <v>9828215255</v>
+        <v>18487166015</v>
       </c>
       <c r="L29" s="13">
         <f>MAX(D29:K29)</f>
-        <v>9999018135</v>
+        <v>77568667095</v>
       </c>
       <c r="M29" s="14">
         <f>B27/L29</f>
-        <v>1.0000981961415354</v>
+        <v>3.8675409960646046</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -19719,7 +19719,7 @@
   <dimension ref="A1:Q166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N18" sqref="N18:N21"/>
     </sheetView>
   </sheetViews>
@@ -32559,7 +32559,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10:L12"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33328,8 +33328,8 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="1">
-        <f>10^10</f>
-        <v>10000000000</v>
+        <f>2*10^11</f>
+        <v>200000000000</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>428</v>
@@ -33358,26 +33358,26 @@
         <v>2</v>
       </c>
       <c r="D28" s="10">
-        <v>710921</v>
+        <v>711264</v>
       </c>
       <c r="E28" s="10">
         <v>195806</v>
       </c>
       <c r="F28" s="10">
-        <v>719625</v>
+        <v>719998</v>
       </c>
       <c r="G28" s="10">
         <v>20687</v>
       </c>
       <c r="H28" s="10">
-        <v>192045</v>
+        <v>192046</v>
       </c>
       <c r="I28" s="10">
         <v>77866</v>
       </c>
       <c r="J28" s="10">
         <f>SUM(D28:I28)</f>
-        <v>1916950</v>
+        <v>1917667</v>
       </c>
       <c r="K28" s="11"/>
     </row>
@@ -33388,30 +33388,30 @@
         <v>3</v>
       </c>
       <c r="D29" s="13">
-        <v>9993088440</v>
+        <v>50687870160</v>
       </c>
       <c r="E29" s="13">
         <v>8771607148</v>
       </c>
       <c r="F29" s="13">
-        <v>9998022420</v>
+        <v>70981749180</v>
       </c>
       <c r="G29" s="13">
         <v>1015171405</v>
       </c>
       <c r="H29" s="13">
-        <v>8780230240</v>
+        <v>13177069840</v>
       </c>
       <c r="I29" s="13">
         <v>3490602285</v>
       </c>
       <c r="J29" s="13">
         <f>MAX(D29:I29)</f>
-        <v>9998022420</v>
+        <v>70981749180</v>
       </c>
       <c r="K29" s="14">
         <f>B27/J29</f>
-        <v>1.0001977971159621</v>
+        <v>2.8176256898491947</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -36494,7 +36494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9951D164-36E6-42AB-B42D-6BFF47135181}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
